--- a/biology/Origine et évolution du vivant/Entophysalis/Entophysalis.xlsx
+++ b/biology/Origine et évolution du vivant/Entophysalis/Entophysalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entophysalis est un genre de cyanobactéries (ou cyanophycées : Cyanophyceae) de la famille des Entophysalidaceae, un groupe qui est apparu il y a environ 3,8 milliards d'années et qui constitue encore aujourd'hui une classe des bactéries (procaryotes). 
 Ces organismes sont très anciens et notamment impliqués dans la bio-construction des stromatolites dont les premiers semblent remonter au Précambrien. 
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 mars 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 mars 2021) :
 Entophysalis arboriformis Kastovský, Fucíková, Hauer &amp; Bohunická, 2011
 Entophysalis atrata R.Tavera &amp; Komárek, 1996
 Entophysalis brebissonii (Meneghini) F.E.Drouet &amp; W.A.Daily, 1948
